--- a/xlsx/邓小平_intext.xlsx
+++ b/xlsx/邓小平_intext.xlsx
@@ -29,7 +29,7 @@
     <t>邓小平 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治_邓小平</t>
+    <t>体育运动_体育运动_竞争_邓小平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E9%A1%BE%E9%97%AE%E5%A7%94%E5%91%98%E4%BC%9A%E4%B8%BB%E4%BB%BB</t>
@@ -20848,7 +20848,7 @@
         <v>1020</v>
       </c>
       <c r="G526" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
